--- a/python/tests/data/Municipios.xlsx
+++ b/python/tests/data/Municipios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjetosPessoais\sistema_distancia_entre_cidades\python\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DDBF3E-0BA3-4334-8D21-BDD3F2667CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDAB8F54-D72B-42F6-8567-B3E85B4F0E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{27E0329F-CC09-4214-A186-40159CB6BFC5}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="municipios" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DadosExternos_1" localSheetId="0" hidden="1">municipios!$A$1:$I$2</definedName>
+    <definedName name="DadosExternos_1" localSheetId="0" hidden="1">municipios!$A$1:$I$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Column1</t>
   </si>
@@ -99,6 +99,24 @@
   </si>
   <si>
     <t>America/Sao_Paulo</t>
+  </si>
+  <si>
+    <t>Aracaju</t>
+  </si>
+  <si>
+    <t>Belém</t>
+  </si>
+  <si>
+    <t>Belo Horizonte</t>
+  </si>
+  <si>
+    <t>Boa Vista</t>
+  </si>
+  <si>
+    <t>America/Porto_Velho</t>
+  </si>
+  <si>
+    <t>Brasília</t>
   </si>
 </sst>
 </file>
@@ -201,8 +219,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ADD4DFC1-130C-4C63-B135-8DF4E9C36B87}" name="municipios" displayName="municipios" ref="A1:I2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:I2" xr:uid="{ADD4DFC1-130C-4C63-B135-8DF4E9C36B87}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ADD4DFC1-130C-4C63-B135-8DF4E9C36B87}" name="municipios" displayName="municipios" ref="A1:I7" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:I7" xr:uid="{ADD4DFC1-130C-4C63-B135-8DF4E9C36B87}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{2AADC735-154C-4DD3-8C4E-C89C0DC0BF36}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{85D59338-22F6-4D77-BE65-577FB9C3DAD2}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="7"/>
@@ -515,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CE09943-9782-4CF3-A212-7CEE3C317027}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -587,10 +605,156 @@
         <v>17</v>
       </c>
     </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2800308</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-109091</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-370677</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>28</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3105</v>
+      </c>
+      <c r="H3" s="1">
+        <v>79</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1501402</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-14554</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-484898</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1">
+        <v>427</v>
+      </c>
+      <c r="H4" s="1">
+        <v>91</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3106200</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-199102</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-439266</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>31</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4123</v>
+      </c>
+      <c r="H5" s="1">
+        <v>31</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>1400100</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1">
+        <v>282384</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-606753</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1">
+        <v>301</v>
+      </c>
+      <c r="H6" s="1">
+        <v>95</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5300108</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1">
+        <v>-157795</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-479297</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>53</v>
+      </c>
+      <c r="G7" s="1">
+        <v>9701</v>
+      </c>
+      <c r="H7" s="1">
+        <v>61</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
